--- a/server/assets/template_ropa.xlsx
+++ b/server/assets/template_ropa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siriramhazam/Documents/GitHub/main-project/server/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C7760E-FEEF-9848-8108-5FC897DE03CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EA1F29-DC64-F94A-951E-FEFB2DD77900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="33500" windowHeight="21100" xr2:uid="{94A304C9-7E3B-F348-833B-694378A07690}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{94A304C9-7E3B-F348-833B-694378A07690}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,20 +430,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="26"/>
-      <color rgb="FF000000"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -455,13 +448,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
@@ -488,19 +474,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="TH SarabunPSK"/>
@@ -523,18 +496,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF0070C0"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
@@ -572,6 +533,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -987,213 +961,180 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1530,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FF45D1-7626-2746-B0E0-2458A9A72A30}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="159" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.3"/>
@@ -1554,807 +1495,643 @@
     <col min="18" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="40" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:17" ht="22" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.35">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="60"/>
-    </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56"/>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="64"/>
-    </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49"/>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="65" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="67"/>
-    </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="21"/>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="68"/>
-    </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="70"/>
-    </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" ht="23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" ht="23" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="50"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
     </row>
     <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="35" t="s">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="35" t="s">
+      <c r="O9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="35" t="s">
+      <c r="P9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="37" t="s">
+      <c r="Q9" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="44" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="7" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="38"/>
-    </row>
-    <row r="11" spans="1:17" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="11"/>
-    </row>
-    <row r="12" spans="1:17" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="11"/>
-    </row>
-    <row r="13" spans="1:17" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="11"/>
-    </row>
-    <row r="14" spans="1:17" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="11"/>
-    </row>
-    <row r="15" spans="1:17" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="11"/>
-    </row>
-    <row r="16" spans="1:17" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="11"/>
-    </row>
-    <row r="17" spans="1:17" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="11"/>
-    </row>
-    <row r="18" spans="1:17" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="11"/>
-    </row>
-    <row r="19" spans="1:17" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="11"/>
-    </row>
-    <row r="20" spans="1:17" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="17"/>
-    </row>
-    <row r="21" spans="1:17" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="17"/>
-    </row>
-    <row r="22" spans="1:17" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="17"/>
-    </row>
-    <row r="23" spans="1:17" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="17"/>
-    </row>
-    <row r="24" spans="1:17" s="12" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="24"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="28"/>
+    </row>
+    <row r="11" spans="1:17" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="43"/>
+    </row>
+    <row r="12" spans="1:17" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" s="9" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="33"/>
+    </row>
+    <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="52"/>
+    </row>
+    <row r="16" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="52"/>
+    </row>
+    <row r="17" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="52"/>
+    </row>
+    <row r="18" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="52"/>
+    </row>
+    <row r="19" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="52"/>
+    </row>
+    <row r="20" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="52"/>
+    </row>
+    <row r="21" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="52"/>
+    </row>
+    <row r="22" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="52"/>
+    </row>
+    <row r="23" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="52"/>
+    </row>
+    <row r="24" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="52"/>
     </row>
     <row r="25" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="43"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="52"/>
     </row>
     <row r="26" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="30"/>
-    </row>
-    <row r="27" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="30"/>
-    </row>
-    <row r="28" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="30"/>
-    </row>
-    <row r="29" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="30"/>
-    </row>
-    <row r="30" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="30"/>
-    </row>
-    <row r="31" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="30"/>
-    </row>
-    <row r="32" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="30"/>
-    </row>
-    <row r="33" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="30"/>
-    </row>
-    <row r="34" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="30"/>
-    </row>
-    <row r="35" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="30"/>
-    </row>
-    <row r="36" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="30"/>
-    </row>
-    <row r="37" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="30"/>
-    </row>
-    <row r="38" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="25"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="27"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="52"/>
+    </row>
+    <row r="27" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="57"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="I4:J4"/>
@@ -2370,58 +2147,13 @@
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:Q34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="L35:Q35"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="L38:Q38"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="L36:Q36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="L37:Q37"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/server/assets/template_ropa.xlsx
+++ b/server/assets/template_ropa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siriramhazam/Documents/GitHub/main-project/server/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EA1F29-DC64-F94A-951E-FEFB2DD77900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CE61A3-E83D-6C42-B705-6B28D757E367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{94A304C9-7E3B-F348-833B-694378A07690}"/>
   </bookViews>
@@ -963,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -989,152 +989,143 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1474,7 +1465,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="159" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:E19"/>
+      <selection activeCell="A15" sqref="A15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.3"/>
@@ -1496,242 +1487,242 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="46" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="12" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53"/>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="16"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="55"/>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="47" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="49"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="37"/>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="19" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="21"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="22"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="24"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1" ht="23" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="26"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="45"/>
     </row>
     <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="17" t="s">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="27" t="s">
+      <c r="Q9" s="46" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="44" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1744,29 +1735,29 @@
       <c r="M10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="47"/>
     </row>
     <row r="11" spans="1:17" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="43"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:17" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
@@ -1807,318 +1798,298 @@
       <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="29" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32" t="s">
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="33"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="26"/>
     </row>
     <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="52"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="52"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="52"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="52"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="52"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="52"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="52"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="52"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="52"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="52"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="52"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="17"/>
     </row>
     <row r="26" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="52"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="17"/>
     </row>
     <row r="27" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="57"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="59"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:Q8"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:Q5"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="L14:Q14"/>
@@ -2133,27 +2104,47 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:Q8"/>
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="L26:Q26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/server/assets/template_ropa.xlsx
+++ b/server/assets/template_ropa.xlsx
@@ -1,166 +1,143 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siriramhazam/Documents/GitHub/main-project/server/assets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CE61A3-E83D-6C42-B705-6B28D757E367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{94A304C9-7E3B-F348-833B-694378A07690}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Adminstrator</author>
-    <author>Admin</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{8D71BA5D-3CAA-9B43-82AA-5B44831590AF}">
+    <comment ref="C9" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
+            <color rgb="FF000000"/>
+            <family val="2"/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>Adminstrator:</t>
         </r>
         <r>
           <rPr>
+            <color rgb="FF000000"/>
+            <family val="2"/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
         <r>
           <rPr>
+            <color rgb="FF000000"/>
+            <family val="2"/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>ได้ข้อมูลจากเจ้าของข้อมูลโดยตรง</t>
         </r>
         <r>
           <rPr>
+            <color rgb="FF000000"/>
+            <family val="2"/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
+            <color rgb="FF000000"/>
+            <family val="2"/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>หรือ</t>
         </r>
         <r>
           <rPr>
+            <color rgb="FF000000"/>
+            <family val="2"/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
         <r>
           <rPr>
+            <color rgb="FF000000"/>
+            <family val="2"/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
         <r>
           <rPr>
+            <color rgb="FF000000"/>
+            <family val="2"/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>ได้ข้อมูลจากแหล่งอื่น</t>
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="1" shapeId="0" xr:uid="{8E179C9E-A973-5C4E-B830-931A894827A7}">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
+            <color rgb="FF000000"/>
+            <family val="2"/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>โปรดดูเอกสารไฟล์</t>
         </r>
         <r>
           <rPr>
             <b/>
+            <color rgb="FF000000"/>
+            <family val="2"/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> PDF </t>
         </r>
         <r>
           <rPr>
             <b/>
+            <color rgb="FF000000"/>
+            <family val="2"/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>ซึ่งที่ปรึกษาได้แนะนำ</t>
         </r>
         <r>
           <rPr>
             <b/>
+            <color rgb="FF000000"/>
+            <family val="2"/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -168,79 +145,79 @@
         <r>
           <rPr>
             <b/>
+            <color rgb="FF000000"/>
+            <family val="2"/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>การระบุประเภทของข้อมูลส่วนบุคคล</t>
         </r>
         <r>
           <rPr>
             <b/>
+            <color rgb="FF000000"/>
+            <family val="2"/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
             <b/>
+            <color rgb="FF000000"/>
+            <family val="2"/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>เพื่อให้สามารถระบุประเภทของข้อมูลส่วนบุคคลได้ถูกต้อง</t>
         </r>
         <r>
           <rPr>
             <b/>
+            <color rgb="FF000000"/>
+            <family val="2"/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{6FF46221-4B19-8940-993F-2006B789E9B2}">
+    <comment ref="N9" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
+            <color indexed="81"/>
+            <family val="2"/>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
-          <t>Adminstrator:
+          <t xml:space="preserve">Adminstrator:
 ระบุ ตำแหน่งของบุคคลในหน่วยงานอื่น ภายในองค์กร ที่มีการส่งต่อข้อมูลให้ หรือมีการใช้ข้อมูลร่วมกัน</t>
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{E505D627-47D2-5D4C-A3A5-3D482404DFE0}">
+    <comment ref="J10" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
+            <color indexed="81"/>
+            <family val="2"/>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>Adminstrator:</t>
         </r>
         <r>
           <rPr>
+            <color indexed="81"/>
+            <family val="2"/>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -248,10 +225,10 @@
         <r>
           <rPr>
             <b/>
+            <color indexed="81"/>
+            <family val="2"/>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>ระบุตำแหน่งหน้าที่ เฉพาะบุคคลในแผนก ที่เป็นผู้เข้าถึงข้อมูลได้</t>
         </r>
@@ -262,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t xml:space="preserve">แบบบันทึกรายการตามมาตรา 39 (Record of Processing Activity) </t>
   </si>
@@ -270,12 +247,12 @@
     <t xml:space="preserve">ชื่อผู้ควบคุมข้อมูลส่วนบุคคล (หรือผู้แทน) </t>
   </si>
   <si>
+    <t>Siriram Hazam</t>
+  </si>
+  <si>
     <t xml:space="preserve">ชื่อเจ้าหน้าที่คุ้มครองข้อมูลส่วนบุคคล </t>
   </si>
   <si>
-    <t xml:space="preserve">ชื่อ.................... นามสกุล................................คณะทำงานคุ้มครองข้อมูลส่วนบุคคล (DPO) </t>
-  </si>
-  <si>
     <t>ที่ตั้งของสถานที่ติดต่อ</t>
   </si>
   <si>
@@ -294,41 +271,44 @@
     <t>หน่วยงานที่บันทึกรายการ</t>
   </si>
   <si>
+    <t>test123</t>
+  </si>
+  <si>
     <t>กิจกรรมงานที่บันทึกรายการ</t>
   </si>
   <si>
-    <t>ข้อมูลส่วนบุคคล ที่มีการเก็บรวบรวม
+    <t xml:space="preserve">ข้อมูลส่วนบุคคล ที่มีการเก็บรวบรวม
 (ข้อมูลที่ประมวลผล)</t>
   </si>
   <si>
-    <t>เจ้าของข้อมูล
+    <t xml:space="preserve">เจ้าของข้อมูล
 ส่วนบุคคล</t>
   </si>
   <si>
     <t>ได้รับข้อมูลมาจาก</t>
   </si>
   <si>
-    <t>รูปแบบของข้อมูล 
+    <t xml:space="preserve">รูปแบบของข้อมูล 
 (ข้อมูลทั่วไป/
 ข้อมูลอ่อนไหว)</t>
   </si>
   <si>
-    <t>ประเภทของข้อมูลส่วนบุคคล
+    <t xml:space="preserve">ประเภทของข้อมูลส่วนบุคคล
 (กลุ่มของข้อมูล )</t>
   </si>
   <si>
     <t>วัตถุประสงค์ของการเก็บรวบรวมข้อมูล (แยกระบุวัตถุประสงค์ตามประเภทข้อมูล</t>
   </si>
   <si>
-    <t>ฐานทางกฎหมายสำหรับ
+    <t xml:space="preserve">ฐานทางกฎหมายสำหรับ
 การประมวลผลข้อมูลส่วนบุคคล</t>
   </si>
   <si>
-    <t>ระยะเวลาการจัดเก็บข้อมูลส่วนบุคคล 
+    <t xml:space="preserve">ระยะเวลาการจัดเก็บข้อมูลส่วนบุคคล 
 (ปี/นับจาก)</t>
   </si>
   <si>
-    <t>แหล่งจัดเก็บ
+    <t xml:space="preserve">แหล่งจัดเก็บ
 ข้อมูลส่วนบุคคล</t>
   </si>
   <si>
@@ -343,20 +323,20 @@
       <rPr>
         <b/>
         <u/>
+        <color rgb="FF000000"/>
+        <family val="2"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="TH SarabunPSK"/>
-        <family val="2"/>
       </rPr>
       <t>ถูกใช้</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="2"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="TH SarabunPSK"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">โดยตำแหน่งใดบ้าง 
 (ภายในองค์กร) </t>
@@ -371,39 +351,39 @@
       <rPr>
         <b/>
         <u/>
+        <color rgb="FF000000"/>
+        <family val="2"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="TH SarabunPSK"/>
-        <family val="2"/>
       </rPr>
       <t>ถูกส่งต่อ/เปิดเผย</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color rgb="FF000000"/>
+        <family val="2"/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
         <rFont val="TH SarabunPSK"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">ให้ใครบ้าง 
 (ภายนอกองค์กร) </t>
     </r>
   </si>
   <si>
-    <t>วิธีการทำลาย
+    <t xml:space="preserve">วิธีการทำลาย
 ข้อมูลส่วนบุคคล</t>
   </si>
   <si>
-    <t>ผู้อนุมัติการทำลาย
+    <t xml:space="preserve">ผู้อนุมัติการทำลาย
 ข้อมูลส่วนบุคคล</t>
   </si>
   <si>
-    <t>บุคคล
+    <t xml:space="preserve">บุคคล
 ที่มีสิทธิเข้าถึงข้อมูล</t>
   </si>
   <si>
-    <t>เงื่อนไขเกี่ยวกับบุคคล
+    <t xml:space="preserve">เงื่อนไขเกี่ยวกับบุคคล
 ที่มีสิทธิเข้าถึงข้อมูล</t>
   </si>
   <si>
@@ -424,127 +404,80 @@
   <si>
     <t xml:space="preserve">มาตรการทางกายภาพ 
 (Physical Measures) </t>
+  </si>
+  <si>
+    <t>(1) test123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="TH SarabunPSK"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="TH SarabunPSK"/>
-      <family val="2"/>
     </font>
     <font>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="14"/>
-      <color theme="1"/>
       <name val="TH SarabunPSK"/>
-      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="14"/>
+      <name val="TH SarabunPSK"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
+      <family val="2"/>
+      <sz val="14"/>
       <name val="TH SarabunPSK"/>
+    </font>
+    <font>
+      <b/>
       <family val="2"/>
+      <sz val="14"/>
+      <name val="TH SarabunPSK"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
+      <name val="TH SarabunPSK"/>
     </font>
     <font>
       <b/>
+      <color rgb="FF0070C0"/>
+      <family val="2"/>
       <sz val="14"/>
-      <color theme="1"/>
       <name val="TH SarabunPSK"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
       <color rgb="FF0070C0"/>
+      <family val="2"/>
+      <sz val="10"/>
       <name val="TH SarabunPSK"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -568,7 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,23 +892,113 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -985,12 +1008,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1001,135 +1056,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1461,14 +1389,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FF45D1-7626-2746-B0E0-2458A9A72A30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="159" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E15"/>
+    <sheetView workbookViewId="0" zoomScale="159" zoomScaleNormal="100">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" defaultColWidth="8.83203125" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
@@ -1483,595 +1411,606 @@
     <col min="12" max="12" width="25.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="26.83203125" style="1" customWidth="1"/>
     <col min="14" max="17" width="23.5" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.83203125" style="1"/>
+    <col min="18" max="16384" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+    <row r="1" ht="22" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-    </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" ht="22" customHeight="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53"/>
-    </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" ht="22" customHeight="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="55"/>
-    </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" ht="22" customHeight="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="37"/>
-    </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" ht="22" customHeight="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="38" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="40"/>
-    </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" ht="22" customHeight="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34" t="s">
+      <c r="B6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="41"/>
-    </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" ht="22" customHeight="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="43"/>
-    </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" ht="23" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45"/>
-    </row>
-    <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="22"/>
+    </row>
+    <row r="8" ht="23" customHeight="1" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="B8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="25"/>
+    </row>
+    <row r="9" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
+      <c r="J9" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P9" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="46" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="44" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="5" t="s">
+      <c r="Q9" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="5" t="s">
+    </row>
+    <row r="10" ht="44" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="K10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="L10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="47"/>
-    </row>
-    <row r="11" spans="1:17" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="56"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12" spans="1:17" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="1:17" s="9" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="M10" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="22" t="s">
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="34"/>
+    </row>
+    <row r="11" ht="21" customHeight="1" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="39"/>
+    </row>
+    <row r="12" ht="21" customHeight="1" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="39"/>
+    </row>
+    <row r="13" ht="22" customHeight="1" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="39"/>
+    </row>
+    <row r="14" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="26"/>
-    </row>
-    <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="17"/>
-    </row>
-    <row r="16" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
-    </row>
-    <row r="17" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="17"/>
-    </row>
-    <row r="18" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="17"/>
-    </row>
-    <row r="19" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="17"/>
-    </row>
-    <row r="20" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="17"/>
-    </row>
-    <row r="21" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="17"/>
-    </row>
-    <row r="22" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="17"/>
-    </row>
-    <row r="23" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="17"/>
-    </row>
-    <row r="24" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="17"/>
-    </row>
-    <row r="25" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="17"/>
-    </row>
-    <row r="26" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="17"/>
-    </row>
-    <row r="27" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="14"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="45"/>
+    </row>
+    <row r="15" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="48"/>
+    </row>
+    <row r="16" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="48"/>
+    </row>
+    <row r="17" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="48"/>
+    </row>
+    <row r="18" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48"/>
+    </row>
+    <row r="19" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="48"/>
+    </row>
+    <row r="20" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="48"/>
+    </row>
+    <row r="21" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="48"/>
+    </row>
+    <row r="22" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="48"/>
+    </row>
+    <row r="23" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="48"/>
+    </row>
+    <row r="24" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="48"/>
+    </row>
+    <row r="25" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="48"/>
+    </row>
+    <row r="26" ht="21" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="48"/>
+    </row>
+    <row r="27" ht="17" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:J2"/>
@@ -2079,33 +2018,34 @@
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:Q8"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:Q4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:Q8"/>
     <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:N10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="N9:N10"/>
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="L14:Q14"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:Q15"/>
@@ -2136,17 +2076,17 @@
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="F24:K24"/>
     <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="L27:Q27"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="F25:K25"/>
     <mergeCell ref="L25:Q25"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="F26:K26"/>
     <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="L27:Q27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/server/assets/template_ropa.xlsx
+++ b/server/assets/template_ropa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11027"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1FA02B-0F83-AF42-96BB-4E36A9B39E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E32C94-EBE7-694E-9060-DBB9584A2BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t xml:space="preserve">แบบบันทึกรายการตามมาตรา 39 (Record of Processing Activity) </t>
   </si>
@@ -248,9 +248,6 @@
     <t xml:space="preserve">ชื่อผู้ควบคุมข้อมูลส่วนบุคคล (หรือผู้แทน) </t>
   </si>
   <si>
-    <t>Siriram Hazam</t>
-  </si>
-  <si>
     <t xml:space="preserve">ชื่อเจ้าหน้าที่คุ้มครองข้อมูลส่วนบุคคล </t>
   </si>
   <si>
@@ -270,9 +267,6 @@
   </si>
   <si>
     <t>หน่วยงานที่บันทึกรายการ</t>
-  </si>
-  <si>
-    <t>test123</t>
   </si>
   <si>
     <t>กิจกรรมงานที่บันทึกรายการ</t>
@@ -287,15 +281,6 @@
   </si>
   <si>
     <t>ได้รับข้อมูลมาจาก</t>
-  </si>
-  <si>
-    <t>รูปแบบของข้อมูล 
-(ข้อมูลทั่วไป/
-ข้อมูลอ่อนไหว)</t>
-  </si>
-  <si>
-    <t>ประเภทของข้อมูลส่วนบุคคล
-(กลุ่มของข้อมูล )</t>
   </si>
   <si>
     <t>วัตถุประสงค์ของการเก็บรวบรวมข้อมูล (แยกระบุวัตถุประสงค์ตามประเภทข้อมูล</t>
@@ -393,6 +378,14 @@
   </si>
   <si>
     <t>เงื่อนไขในการเข้าถึงข้อมูล</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ประเภทของข้อมูลส่วนบุคคล (ข้อมูลทั่วไป/
+ข้อมูลอ่อนไหว)</t>
+  </si>
+  <si>
+    <t>รูปแบบของข้อมูลส่วนบุคคล
+(กลุ่มของข้อมูล )</t>
   </si>
 </sst>
 </file>
@@ -830,6 +823,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -848,74 +904,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1253,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1277,264 +1270,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="39"/>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="22"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="24"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="30"/>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="27"/>
+        <v>5</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="33"/>
     </row>
     <row r="6" spans="1:17" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="28"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="30"/>
+        <v>8</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32"/>
+        <v>9</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="D9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="G9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="H9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="I9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="J9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="O9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="P9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="Q9" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="40" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="44" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="41"/>
+        <v>25</v>
+      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
@@ -1609,22 +1594,13 @@
     <row r="27" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:Q3"/>
     <mergeCell ref="K6:Q6"/>
     <mergeCell ref="B7:Q7"/>
     <mergeCell ref="B8:Q8"/>
@@ -1634,13 +1610,22 @@
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="J9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/server/assets/template_ropa.xlsx
+++ b/server/assets/template_ropa.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11027"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E32C94-EBE7-694E-9060-DBB9584A2BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EE97D5-0FCE-384D-B458-A3A1CA42C326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36400" yWindow="1980" windowWidth="28820" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -240,15 +240,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t xml:space="preserve">แบบบันทึกรายการตามมาตรา 39 (Record of Processing Activity) </t>
   </si>
   <si>
     <t xml:space="preserve">ชื่อผู้ควบคุมข้อมูลส่วนบุคคล (หรือผู้แทน) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ชื่อเจ้าหน้าที่คุ้มครองข้อมูลส่วนบุคคล </t>
   </si>
   <si>
     <t>ที่ตั้งของสถานที่ติดต่อ</t>
@@ -387,12 +384,18 @@
     <t>รูปแบบของข้อมูลส่วนบุคคล
 (กลุ่มของข้อมูล )</t>
   </si>
+  <si>
+    <t>ชื่อเจ้าหน้าที่คุ้มครองข้อมูลส่วนบุคคล (DPO)</t>
+  </si>
+  <si>
+    <t>สถานะของการตรวจสอบ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,21 +430,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
@@ -499,6 +489,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -520,7 +518,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -643,36 +641,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -783,6 +751,93 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -791,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -804,10 +859,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -823,91 +878,106 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1246,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:Q8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K2:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1270,256 +1340,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="39"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="27"/>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="30"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46"/>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="33"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="1:17" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="23"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" s="2" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="35"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="25"/>
-    </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="27"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="H9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="I9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="J9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="13" t="s">
+      <c r="O9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="P9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="Q9" s="40" t="s">
         <v>20</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="44" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="16"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="41"/>
     </row>
     <row r="11" spans="1:17" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
@@ -1593,7 +1665,34 @@
     <row r="26" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" ht="17" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="34">
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="B8:Q8"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:Q7"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:J2"/>
@@ -1601,31 +1700,6 @@
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:Q8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="J9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
